--- a/src/excels/meningeal/new_tese/dge/top_genes_clusters_0.5.xlsx
+++ b/src/excels/meningeal/new_tese/dge/top_genes_clusters_0.5.xlsx
@@ -8,26 +8,26 @@
   </bookViews>
   <sheets>
     <sheet name="MeV.Endothelial.0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MeV.Fib.5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MeV.FibCollagen.1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MeV.Fib.4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MeV.Endothelial.1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MeV.FibCollagen.3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="MeV.Endothelial.2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="MeV.Fib.2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="MeV.Fib.1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="MeV.Fib.0" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MeV.FibCollagen.0" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="MeV.FibLaminin.0" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="MeV.FibProlif.0" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="MeV.Pericytes.0" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MeV.VLMC.1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="MeV.Endothelial.3" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MeV.Epithelial.0" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="MeV.FibCollagen.2" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MeV.SMC.0" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="MeV.Fib.3" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="MeV.VLMC.0" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="MeV.Endothelial.1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MeV.Endothelial.2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MeV.Endothelial.3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MeV.Epithelial.0" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MeV.SMC.0" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MeV.Pericytes.0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MeV.VLMC.0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MeV.VLMC.1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MeV.FibCollagen.0" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MeV.FibCollagen.1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MeV.FibCollagen.2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MeV.FibCollagen.3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="MeV.FibLaminin.0" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MeV.Fib.0" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="MeV.Fib.1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MeV.Fib.2" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="MeV.Fib.5" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MeV.Fib.3" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="MeV.Fib.4" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="MeV.FibProlif.0" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -624,96 +624,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Slc7a11</t>
+          <t>Igf1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.486213684082031</v>
+        <v>3.092049598693848</v>
       </c>
       <c r="C2" t="n">
-        <v>7.977815620295287e-68</v>
+        <v>8.865119719549452e-68</v>
       </c>
       <c r="D2" t="n">
-        <v>17.96271133422852</v>
+        <v>17.9183349609375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Col4a6</t>
+          <t>Ltbp1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.079169988632202</v>
+        <v>3.040301084518433</v>
       </c>
       <c r="C3" t="n">
-        <v>1.04727916447729e-22</v>
+        <v>1.981494228641063e-57</v>
       </c>
       <c r="D3" t="n">
-        <v>10.52660942077637</v>
+        <v>16.49800491333008</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ltbp1</t>
+          <t>Grem2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.029100179672241</v>
+        <v>2.973413467407227</v>
       </c>
       <c r="C4" t="n">
-        <v>2.260390717954911e-26</v>
+        <v>1.306358055235668e-21</v>
       </c>
       <c r="D4" t="n">
-        <v>11.33651924133301</v>
+        <v>10.15969562530518</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5964285714285714</v>
+        <v>0.5101010101010101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mrvi1</t>
+          <t>Svep1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.768715262413025</v>
+        <v>2.91600775718689</v>
       </c>
       <c r="C5" t="n">
-        <v>8.751894803413632e-22</v>
+        <v>5.263196384214766e-40</v>
       </c>
       <c r="D5" t="n">
-        <v>10.31768035888672</v>
+        <v>13.78193855285645</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5892857142857143</v>
+        <v>0.7121212121212122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Igf1</t>
+          <t>Igfbp2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.716221690177917</v>
+        <v>2.875304937362671</v>
       </c>
       <c r="C6" t="n">
-        <v>2.796366324990599e-31</v>
+        <v>6.412683480906885e-37</v>
       </c>
       <c r="D6" t="n">
-        <v>12.32445335388184</v>
+        <v>13.24851512908936</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7607142857142857</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
   </sheetData>
@@ -765,96 +765,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Igf1</t>
+          <t>Kng2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.092049598693848</v>
+        <v>5.077123641967773</v>
       </c>
       <c r="C2" t="n">
-        <v>8.865119719549452e-68</v>
+        <v>3.655288638893611e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>17.9183349609375</v>
+        <v>5.80870246887207</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.5106382978723404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ltbp1</t>
+          <t>Ror2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.040301084518433</v>
+        <v>4.477007865905762</v>
       </c>
       <c r="C3" t="n">
-        <v>1.981494228641063e-57</v>
+        <v>1.281019797189107e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>16.49800491333008</v>
+        <v>7.551877021789551</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.6808510638297872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Grem2</t>
+          <t>Col15a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.973413467407227</v>
+        <v>3.963915824890137</v>
       </c>
       <c r="C4" t="n">
-        <v>1.306358055235668e-21</v>
+        <v>2.686286182163059e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>10.15969562530518</v>
+        <v>6.307950973510742</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5101010101010101</v>
+        <v>0.5957446808510638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Svep1</t>
+          <t>Fap</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.91600775718689</v>
+        <v>3.795554637908936</v>
       </c>
       <c r="C5" t="n">
-        <v>5.263196384214766e-40</v>
+        <v>8.503793454222606e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>13.78193855285645</v>
+        <v>6.08295202255249</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Igfbp2</t>
+          <t>Runx1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.875304937362671</v>
+        <v>3.742849588394165</v>
       </c>
       <c r="C6" t="n">
-        <v>6.412683480906885e-37</v>
+        <v>8.663468150463155e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>13.24851512908936</v>
+        <v>6.502959251403809</v>
       </c>
       <c r="E6" t="n">
-        <v>0.696969696969697</v>
+        <v>0.6170212765957447</v>
       </c>
     </row>
   </sheetData>
@@ -906,96 +906,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abca8a</t>
+          <t>Pi16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.812708377838135</v>
+        <v>5.72364616394043</v>
       </c>
       <c r="C2" t="n">
-        <v>1.016249034895986e-24</v>
+        <v>1.339212783972267e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0407075881958</v>
+        <v>7.446139335632324</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Lama1</t>
+          <t>Nox4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.591655254364014</v>
+        <v>4.927291393280029</v>
       </c>
       <c r="C3" t="n">
-        <v>1.772656712304396e-38</v>
+        <v>3.06934761341701e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>13.71305370330811</v>
+        <v>7.003499031066895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.5925925925925926</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col15a1</t>
+          <t>Col14a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.365627765655518</v>
+        <v>4.874123096466064</v>
       </c>
       <c r="C4" t="n">
-        <v>2.666220465059485e-20</v>
+        <v>1.366950806119628e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>10.03963470458984</v>
+        <v>5.971248626708984</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cemip</t>
+          <t>Rspo2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.291172981262207</v>
+        <v>4.676848888397217</v>
       </c>
       <c r="C5" t="n">
-        <v>4.216176818475051e-29</v>
+        <v>1.264694910126828e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>11.98947715759277</v>
+        <v>5.993216991424561</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Apod</t>
+          <t>Fndc1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.98327112197876</v>
+        <v>4.639036655426025</v>
       </c>
       <c r="C6" t="n">
-        <v>7.884380516812768e-26</v>
+        <v>1.314102389259921e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>11.28772640228271</v>
+        <v>8.145654678344727</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6851851851851852</v>
       </c>
     </row>
   </sheetData>
@@ -1047,96 +1047,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Depdc1a</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.855690002441406</v>
+        <v>4.517788410186768</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005274565380047264</v>
+        <v>2.226779464725495e-120</v>
       </c>
       <c r="D2" t="n">
-        <v>4.5152907371521</v>
+        <v>23.75129508972168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.29255199432373</v>
+        <v>4.001011848449707</v>
       </c>
       <c r="C3" t="n">
-        <v>1.030496687698366e-05</v>
+        <v>1.426502566690761e-118</v>
       </c>
       <c r="D3" t="n">
-        <v>6.01628589630127</v>
+        <v>23.54644966125488</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.996078431372549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cenpf</t>
+          <t>Ppp1r1a</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.931801795959473</v>
+        <v>3.930273532867432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01839069801919783</v>
+        <v>4.422983715300374e-49</v>
       </c>
       <c r="D4" t="n">
-        <v>4.131274700164795</v>
+        <v>15.15339756011963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.6196078431372549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Knl1</t>
+          <t>Aifm3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.500860214233398</v>
+        <v>3.728295564651489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002767183344433209</v>
+        <v>4.036706078637515e-61</v>
       </c>
       <c r="D5" t="n">
-        <v>5.257995128631592</v>
+        <v>16.91519927978516</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hmmr</t>
+          <t>Nadk2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.46733570098877</v>
+        <v>3.557314395904541</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01839069801919783</v>
+        <v>7.646882735115261e-95</v>
       </c>
       <c r="D6" t="n">
-        <v>4.133940696716309</v>
+        <v>21.05193901062012</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.9058823529411765</v>
       </c>
     </row>
   </sheetData>
@@ -1188,96 +1188,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abcc9</t>
+          <t>Abca8a</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.087331295013428</v>
+        <v>4.812708377838135</v>
       </c>
       <c r="C2" t="n">
-        <v>7.659730698403811e-68</v>
+        <v>1.016249034895986e-24</v>
       </c>
       <c r="D2" t="n">
-        <v>17.81792259216309</v>
+        <v>11.0407075881958</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slc38a11</t>
+          <t>Lama1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.241199493408203</v>
+        <v>4.591655254364014</v>
       </c>
       <c r="C3" t="n">
-        <v>3.163906860122613e-62</v>
+        <v>1.772656712304396e-38</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0678882598877</v>
+        <v>13.71305370330811</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7513227513227513</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Notch3</t>
+          <t>Col15a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.95043420791626</v>
+        <v>4.365627765655518</v>
       </c>
       <c r="C4" t="n">
-        <v>1.010888609432314e-84</v>
+        <v>2.666220465059485e-20</v>
       </c>
       <c r="D4" t="n">
-        <v>19.91693878173828</v>
+        <v>10.03963470458984</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8783068783068783</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Tbx3os1</t>
+          <t>Cemip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.90712833404541</v>
+        <v>4.291172981262207</v>
       </c>
       <c r="C5" t="n">
-        <v>4.376945966447012e-54</v>
+        <v>4.216176818475051e-29</v>
       </c>
       <c r="D5" t="n">
-        <v>15.91995525360107</v>
+        <v>11.98947715759277</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Trpc3</t>
+          <t>Apod</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.889199256896973</v>
+        <v>2.98327112197876</v>
       </c>
       <c r="C6" t="n">
-        <v>1.308246644135486e-71</v>
+        <v>7.884380516812768e-26</v>
       </c>
       <c r="D6" t="n">
-        <v>18.31001472473145</v>
+        <v>11.28772640228271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1329,96 +1329,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Slc47a1</t>
+          <t>Slc7a11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.450317859649658</v>
+        <v>2.486213684082031</v>
       </c>
       <c r="C2" t="n">
-        <v>1.254710437143614e-54</v>
+        <v>7.977815620295287e-68</v>
       </c>
       <c r="D2" t="n">
-        <v>16.18927574157715</v>
+        <v>17.96271133422852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9910714285714286</v>
+        <v>0.9214285714285714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Tbx15</t>
+          <t>Col4a6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.307960510253906</v>
+        <v>2.079169988632202</v>
       </c>
       <c r="C3" t="n">
-        <v>1.475351188655028e-21</v>
+        <v>1.04727916447729e-22</v>
       </c>
       <c r="D3" t="n">
-        <v>10.17861366271973</v>
+        <v>10.52660942077637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Tspan11</t>
+          <t>Ltbp1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.153435230255127</v>
+        <v>2.029100179672241</v>
       </c>
       <c r="C4" t="n">
-        <v>2.736063121309078e-41</v>
+        <v>2.260390717954911e-26</v>
       </c>
       <c r="D4" t="n">
-        <v>14.02823543548584</v>
+        <v>11.33651924133301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8482142857142857</v>
+        <v>0.5964285714285714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Slc4a10</t>
+          <t>Mrvi1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.049439907073975</v>
+        <v>1.768715262413025</v>
       </c>
       <c r="C5" t="n">
-        <v>6.956507806217545e-52</v>
+        <v>8.751894803413632e-22</v>
       </c>
       <c r="D5" t="n">
-        <v>15.75197792053223</v>
+        <v>10.31768035888672</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.5892857142857143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Slc47a2</t>
+          <t>Igf1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.94968843460083</v>
+        <v>1.716221690177917</v>
       </c>
       <c r="C6" t="n">
-        <v>6.307103822333806e-28</v>
+        <v>2.796366324990599e-31</v>
       </c>
       <c r="D6" t="n">
-        <v>11.57633876800537</v>
+        <v>12.32445335388184</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7053571428571429</v>
+        <v>0.7607142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -1470,96 +1470,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Bmx</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.608002662658691</v>
+        <v>2.729148864746094</v>
       </c>
       <c r="C2" t="n">
-        <v>2.062170293983623e-21</v>
+        <v>6.711936903204777e-31</v>
       </c>
       <c r="D2" t="n">
-        <v>10.23504638671875</v>
+        <v>12.22635841369629</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6477272727272727</v>
+        <v>0.9560975609756097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Prdm16</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.73930025100708</v>
+        <v>2.10603666305542</v>
       </c>
       <c r="C3" t="n">
-        <v>8.925358263575392e-25</v>
+        <v>2.466879160583189e-34</v>
       </c>
       <c r="D3" t="n">
-        <v>10.99948310852051</v>
+        <v>12.89632034301758</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.8926829268292683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lama3</t>
+          <t>Slc7a11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.904033184051514</v>
+        <v>2.0783531665802</v>
       </c>
       <c r="C4" t="n">
-        <v>2.204871793142434e-12</v>
+        <v>7.425888279816912e-35</v>
       </c>
       <c r="D4" t="n">
-        <v>7.815247058868408</v>
+        <v>13.03956604003906</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5113636363636364</v>
+        <v>0.8634146341463415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Vegfc</t>
+          <t>Aldh1a2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.55402660369873</v>
+        <v>1.90752899646759</v>
       </c>
       <c r="C5" t="n">
-        <v>1.432260703817273e-24</v>
+        <v>1.522019734757183e-19</v>
       </c>
       <c r="D5" t="n">
-        <v>10.94721031188965</v>
+        <v>9.759799003601074</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.624390243902439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pecam1</t>
+          <t>Pde1a</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.058761119842529</v>
+        <v>1.82099449634552</v>
       </c>
       <c r="C6" t="n">
-        <v>5.737671452539345e-26</v>
+        <v>9.479261708478621e-39</v>
       </c>
       <c r="D6" t="n">
-        <v>11.25468349456787</v>
+        <v>13.75838756561279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.9365853658536586</v>
       </c>
     </row>
   </sheetData>
@@ -1611,96 +1611,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dapl1</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.174651622772217</v>
+        <v>3.643855571746826</v>
       </c>
       <c r="C2" t="n">
-        <v>1.053977920538218e-17</v>
+        <v>1.806106837008812e-62</v>
       </c>
       <c r="D2" t="n">
-        <v>9.325041770935059</v>
+        <v>17.26492691040039</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6527777777777778</v>
+        <v>0.9912663755458515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cubn</t>
+          <t>Il31ra</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.16588830947876</v>
+        <v>3.376112461090088</v>
       </c>
       <c r="C3" t="n">
-        <v>5.189908223154612e-14</v>
+        <v>2.452197077203547e-48</v>
       </c>
       <c r="D3" t="n">
-        <v>8.324864387512207</v>
+        <v>15.1814489364624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6986899563318777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Prg4</t>
+          <t>Col22a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.98261547088623</v>
+        <v>2.687824964523315</v>
       </c>
       <c r="C4" t="n">
-        <v>9.07043299211441e-35</v>
+        <v>2.61534791753206e-32</v>
       </c>
       <c r="D4" t="n">
-        <v>13.02622699737549</v>
+        <v>12.39955615997314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.611353711790393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Slc7a14</t>
+          <t>Igf1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.871819496154785</v>
+        <v>2.48302435874939</v>
       </c>
       <c r="C5" t="n">
-        <v>3.988245121658817e-34</v>
+        <v>1.112520064769845e-49</v>
       </c>
       <c r="D5" t="n">
-        <v>12.88145637512207</v>
+        <v>15.4015941619873</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9305555555555556</v>
+        <v>0.8602620087336245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Glis3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.709115982055664</v>
+        <v>2.348710298538208</v>
       </c>
       <c r="C6" t="n">
-        <v>5.764310105693933e-26</v>
+        <v>1.272374737438455e-37</v>
       </c>
       <c r="D6" t="n">
-        <v>11.27961158752441</v>
+        <v>13.38595581054688</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.7117903930131004</v>
       </c>
     </row>
   </sheetData>
@@ -1752,96 +1752,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pi16</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.72364616394043</v>
+        <v>3.845197677612305</v>
       </c>
       <c r="C2" t="n">
-        <v>1.339212783972267e-10</v>
+        <v>1.566760433650805e-54</v>
       </c>
       <c r="D2" t="n">
-        <v>7.446139335632324</v>
+        <v>16.13285636901855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6111111111111112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nox4</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.927291393280029</v>
+        <v>3.163457155227661</v>
       </c>
       <c r="C3" t="n">
-        <v>3.06934761341701e-09</v>
+        <v>6.943017663513871e-59</v>
       </c>
       <c r="D3" t="n">
-        <v>7.003499031066895</v>
+        <v>16.78170013427734</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.9772727272727273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col14a1</t>
+          <t>Ptgds</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.874123096466064</v>
+        <v>2.908675193786621</v>
       </c>
       <c r="C4" t="n">
-        <v>1.366950806119628e-06</v>
+        <v>3.194319174933153e-41</v>
       </c>
       <c r="D4" t="n">
-        <v>5.971248626708984</v>
+        <v>14.05057048797607</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.8352272727272727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Rspo2</t>
+          <t>Nadk2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.676848888397217</v>
+        <v>2.602757930755615</v>
       </c>
       <c r="C5" t="n">
-        <v>1.264694910126828e-06</v>
+        <v>7.480118312694928e-34</v>
       </c>
       <c r="D5" t="n">
-        <v>5.993216991424561</v>
+        <v>12.76703453063965</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fndc1</t>
+          <t>Slc6a20a</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.639036655426025</v>
+        <v>2.439021587371826</v>
       </c>
       <c r="C6" t="n">
-        <v>1.314102389259921e-12</v>
+        <v>6.044269318625661e-42</v>
       </c>
       <c r="D6" t="n">
-        <v>8.145654678344727</v>
+        <v>14.18364715576172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.8920454545454546</v>
       </c>
     </row>
   </sheetData>
@@ -1893,96 +1893,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Myh11</t>
+          <t>Mamdc2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.972146034240723</v>
+        <v>5.955446720123291</v>
       </c>
       <c r="C2" t="n">
-        <v>2.617308693373026e-19</v>
+        <v>4.004350585996364e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>10.01942920684814</v>
+        <v>5.573925495147705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Myom1</t>
+          <t>Abca8a</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.498341083526611</v>
+        <v>4.506396770477295</v>
       </c>
       <c r="C3" t="n">
-        <v>4.177770775091542e-15</v>
+        <v>2.899682339671256e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>8.75755786895752</v>
+        <v>7.57810115814209</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Jph2</t>
+          <t>Ror2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.424873828887939</v>
+        <v>3.943387508392334</v>
       </c>
       <c r="C4" t="n">
-        <v>5.532637324770845e-09</v>
+        <v>0.0001913969031223089</v>
       </c>
       <c r="D4" t="n">
-        <v>6.825936794281006</v>
+        <v>5.245718955993652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Acta2</t>
+          <t>Matn2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.259573459625244</v>
+        <v>3.685840368270874</v>
       </c>
       <c r="C5" t="n">
-        <v>4.177770775091542e-15</v>
+        <v>0.0006108274222381618</v>
       </c>
       <c r="D5" t="n">
-        <v>8.757355690002441</v>
+        <v>4.97784948348999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>Vit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.08951473236084</v>
+        <v>3.521341562271118</v>
       </c>
       <c r="C6" t="n">
-        <v>1.254680133522068e-07</v>
+        <v>0.0006108274222381618</v>
       </c>
       <c r="D6" t="n">
-        <v>6.31501579284668</v>
+        <v>4.98298978805542</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.525</v>
       </c>
     </row>
   </sheetData>
@@ -2034,96 +2034,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Slco1a4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.845197677612305</v>
+        <v>2.50103759765625</v>
       </c>
       <c r="C2" t="n">
-        <v>1.566760433650805e-54</v>
+        <v>5.486477100989304e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>16.13285636901855</v>
+        <v>8.931571960449219</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.6782608695652174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ranbp3l</t>
+          <t>Adgrl4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.163457155227661</v>
+        <v>2.203131437301636</v>
       </c>
       <c r="C3" t="n">
-        <v>6.943017663513871e-59</v>
+        <v>2.349714339750008e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>16.78170013427734</v>
+        <v>6.849327564239502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.5304347826086957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ptgds</t>
+          <t>Tmtc2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.908675193786621</v>
+        <v>2.179532766342163</v>
       </c>
       <c r="C4" t="n">
-        <v>3.194319174933153e-41</v>
+        <v>2.97259115242356e-15</v>
       </c>
       <c r="D4" t="n">
-        <v>14.05057048797607</v>
+        <v>8.723294258117676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.7217391304347827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Nadk2</t>
+          <t>Mecom</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.602757930755615</v>
+        <v>1.718349933624268</v>
       </c>
       <c r="C5" t="n">
-        <v>7.480118312694928e-34</v>
+        <v>1.478321622020316e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>12.76703453063965</v>
+        <v>6.548807621002197</v>
       </c>
       <c r="E5" t="n">
-        <v>0.75</v>
+        <v>0.6173913043478261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Slc6a20a</t>
+          <t>Flt1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.439021587371826</v>
+        <v>1.68547260761261</v>
       </c>
       <c r="C6" t="n">
-        <v>6.044269318625661e-42</v>
+        <v>4.710184147387529e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>14.18364715576172</v>
+        <v>7.780717849731445</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8920454545454546</v>
+        <v>0.7217391304347827</v>
       </c>
     </row>
   </sheetData>
@@ -2175,96 +2175,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Mamdc2</t>
+          <t>Gna14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.955446720123291</v>
+        <v>5.183976650238037</v>
       </c>
       <c r="C2" t="n">
-        <v>4.004350585996364e-05</v>
+        <v>4.802803053179267e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>5.573925495147705</v>
+        <v>7.494328498840332</v>
       </c>
       <c r="E2" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Abca8a</t>
+          <t>Itgb4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.506396770477295</v>
+        <v>4.948183059692383</v>
       </c>
       <c r="C3" t="n">
-        <v>2.899682339671256e-10</v>
+        <v>1.957481677328529e-11</v>
       </c>
       <c r="D3" t="n">
-        <v>7.57810115814209</v>
+        <v>7.620411396026611</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.5119047619047619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ror2</t>
+          <t>Ptch1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.943387508392334</v>
+        <v>4.775169849395752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001913969031223089</v>
+        <v>8.925673634738105e-29</v>
       </c>
       <c r="D4" t="n">
-        <v>5.245718955993652</v>
+        <v>11.85065174102783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.525</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Matn2</t>
+          <t>Ebf2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.685840368270874</v>
+        <v>4.357966423034668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006108274222381618</v>
+        <v>4.329094981017548e-31</v>
       </c>
       <c r="D5" t="n">
-        <v>4.97784948348999</v>
+        <v>12.3071985244751</v>
       </c>
       <c r="E5" t="n">
-        <v>0.525</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Vit</t>
+          <t>9130410C08Rik</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.521341562271118</v>
+        <v>3.749658584594727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006108274222381618</v>
+        <v>6.328868028744123e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>4.98298978805542</v>
+        <v>7.774576187133789</v>
       </c>
       <c r="E6" t="n">
-        <v>0.525</v>
+        <v>0.5595238095238095</v>
       </c>
     </row>
   </sheetData>
@@ -2316,96 +2316,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Col25a1</t>
+          <t>Depdc1a</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.878852367401123</v>
+        <v>9.855690002441406</v>
       </c>
       <c r="C2" t="n">
-        <v>1.420048829910439e-164</v>
+        <v>0.005274565380047264</v>
       </c>
       <c r="D2" t="n">
-        <v>27.66134834289551</v>
+        <v>4.5152907371521</v>
       </c>
       <c r="E2" t="n">
-        <v>0.936231884057971</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slc26a7</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.602328300476074</v>
+        <v>9.29255199432373</v>
       </c>
       <c r="C3" t="n">
-        <v>6.469061535497088e-134</v>
+        <v>1.030496687698366e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>24.93132591247559</v>
+        <v>6.01628589630127</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8405797101449275</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Slc47a1</t>
+          <t>Cenpf</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.521671772003174</v>
+        <v>8.931801795959473</v>
       </c>
       <c r="C4" t="n">
-        <v>1.479414945501835e-171</v>
+        <v>0.01839069801919783</v>
       </c>
       <c r="D4" t="n">
-        <v>28.25019264221191</v>
+        <v>4.131274700164795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9652173913043478</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Slc4a10</t>
+          <t>Knl1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.095089912414551</v>
+        <v>8.500860214233398</v>
       </c>
       <c r="C5" t="n">
-        <v>2.084818107050819e-187</v>
+        <v>0.0002767183344433209</v>
       </c>
       <c r="D5" t="n">
-        <v>29.53586769104004</v>
+        <v>5.257995128631592</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Slc47a2</t>
+          <t>Hmmr</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.78768253326416</v>
+        <v>8.46733570098877</v>
       </c>
       <c r="C6" t="n">
-        <v>4.179497075278108e-73</v>
+        <v>0.01839069801919783</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4282341003418</v>
+        <v>4.133940696716309</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6318840579710145</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
   </sheetData>
@@ -2457,96 +2457,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Kng2</t>
+          <t>Slco1c1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.077123641967773</v>
+        <v>4.884186267852783</v>
       </c>
       <c r="C2" t="n">
-        <v>3.655288638893611e-06</v>
+        <v>2.916577577426439e-61</v>
       </c>
       <c r="D2" t="n">
-        <v>5.80870246887207</v>
+        <v>16.94911956787109</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.6829268292682927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ror2</t>
+          <t>Slco1a4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.477007865905762</v>
+        <v>4.405142307281494</v>
       </c>
       <c r="C3" t="n">
-        <v>1.281019797189107e-10</v>
+        <v>1.735986789123751e-111</v>
       </c>
       <c r="D3" t="n">
-        <v>7.551877021789551</v>
+        <v>22.84440231323242</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.9471544715447154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col15a1</t>
+          <t>Spock2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.963915824890137</v>
+        <v>3.870866537094116</v>
       </c>
       <c r="C4" t="n">
-        <v>2.686286182163059e-07</v>
+        <v>1.03066534472707e-51</v>
       </c>
       <c r="D4" t="n">
-        <v>6.307950973510742</v>
+        <v>15.57166481018066</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.6626016260162602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fap</t>
+          <t>Lef1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.795554637908936</v>
+        <v>3.843707084655762</v>
       </c>
       <c r="C5" t="n">
-        <v>8.503793454222606e-07</v>
+        <v>1.967478953589985e-83</v>
       </c>
       <c r="D5" t="n">
-        <v>6.08295202255249</v>
+        <v>19.77690887451172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.574468085106383</v>
+        <v>0.8577235772357723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Runx1</t>
+          <t>Slc39a10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.742849588394165</v>
+        <v>3.80259370803833</v>
       </c>
       <c r="C6" t="n">
-        <v>8.663468150463155e-08</v>
+        <v>1.037100158474675e-55</v>
       </c>
       <c r="D6" t="n">
-        <v>6.502959251403809</v>
+        <v>16.15530586242676</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.6951219512195121</v>
       </c>
     </row>
   </sheetData>
@@ -2598,96 +2598,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Gna14</t>
+          <t>Bmx</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.183976650238037</v>
+        <v>6.608002662658691</v>
       </c>
       <c r="C2" t="n">
-        <v>4.802803053179267e-11</v>
+        <v>2.062170293983623e-21</v>
       </c>
       <c r="D2" t="n">
-        <v>7.494328498840332</v>
+        <v>10.23504638671875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.6477272727272727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Itgb4</t>
+          <t>Prdm16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.948183059692383</v>
+        <v>5.73930025100708</v>
       </c>
       <c r="C3" t="n">
-        <v>1.957481677328529e-11</v>
+        <v>8.925358263575392e-25</v>
       </c>
       <c r="D3" t="n">
-        <v>7.620411396026611</v>
+        <v>10.99948310852051</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5119047619047619</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ptch1</t>
+          <t>Lama3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.775169849395752</v>
+        <v>4.904033184051514</v>
       </c>
       <c r="C4" t="n">
-        <v>8.925673634738105e-29</v>
+        <v>2.204871793142434e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>11.85065174102783</v>
+        <v>7.815247058868408</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.5113636363636364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ebf2</t>
+          <t>Vegfc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.357966423034668</v>
+        <v>4.55402660369873</v>
       </c>
       <c r="C5" t="n">
-        <v>4.329094981017548e-31</v>
+        <v>1.432260703817273e-24</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3071985244751</v>
+        <v>10.94721031188965</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>9130410C08Rik</t>
+          <t>Pecam1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.749658584594727</v>
+        <v>4.058761119842529</v>
       </c>
       <c r="C6" t="n">
-        <v>6.328868028744123e-12</v>
+        <v>5.737671452539345e-26</v>
       </c>
       <c r="D6" t="n">
-        <v>7.774576187133789</v>
+        <v>11.25468349456787</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5595238095238095</v>
+        <v>0.7727272727272727</v>
       </c>
     </row>
   </sheetData>
@@ -2739,96 +2739,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Slco1a4</t>
+          <t>Dapl1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.50103759765625</v>
+        <v>6.174651622772217</v>
       </c>
       <c r="C2" t="n">
-        <v>5.486477100989304e-16</v>
+        <v>1.053977920538218e-17</v>
       </c>
       <c r="D2" t="n">
-        <v>8.931571960449219</v>
+        <v>9.325041770935059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6782608695652174</v>
+        <v>0.6527777777777778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Adgrl4</t>
+          <t>Cubn</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.203131437301636</v>
+        <v>6.16588830947876</v>
       </c>
       <c r="C3" t="n">
-        <v>2.349714339750008e-09</v>
+        <v>5.189908223154612e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>6.849327564239502</v>
+        <v>8.324864387512207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5304347826086957</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Tmtc2</t>
+          <t>Prg4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.179532766342163</v>
+        <v>5.98261547088623</v>
       </c>
       <c r="C4" t="n">
-        <v>2.97259115242356e-15</v>
+        <v>9.07043299211441e-35</v>
       </c>
       <c r="D4" t="n">
-        <v>8.723294258117676</v>
+        <v>13.02622699737549</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7217391304347827</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mecom</t>
+          <t>Slc7a14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.718349933624268</v>
+        <v>4.871819496154785</v>
       </c>
       <c r="C5" t="n">
-        <v>1.478321622020316e-08</v>
+        <v>3.988245121658817e-34</v>
       </c>
       <c r="D5" t="n">
-        <v>6.548807621002197</v>
+        <v>12.88145637512207</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6173913043478261</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Flt1</t>
+          <t>Dpp4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.68547260761261</v>
+        <v>4.709115982055664</v>
       </c>
       <c r="C6" t="n">
-        <v>4.710184147387529e-12</v>
+        <v>5.764310105693933e-26</v>
       </c>
       <c r="D6" t="n">
-        <v>7.780717849731445</v>
+        <v>11.27961158752441</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7217391304347827</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -2880,96 +2880,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Myh11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.517788410186768</v>
+        <v>7.972146034240723</v>
       </c>
       <c r="C2" t="n">
-        <v>2.226779464725495e-120</v>
+        <v>2.617308693373026e-19</v>
       </c>
       <c r="D2" t="n">
-        <v>23.75129508972168</v>
+        <v>10.01942920684814</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.8367346938775511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ranbp3l</t>
+          <t>Myom1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.001011848449707</v>
+        <v>7.498341083526611</v>
       </c>
       <c r="C3" t="n">
-        <v>1.426502566690761e-118</v>
+        <v>4.177770775091542e-15</v>
       </c>
       <c r="D3" t="n">
-        <v>23.54644966125488</v>
+        <v>8.75755786895752</v>
       </c>
       <c r="E3" t="n">
-        <v>0.996078431372549</v>
+        <v>0.7346938775510204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ppp1r1a</t>
+          <t>Jph2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.930273532867432</v>
+        <v>7.424873828887939</v>
       </c>
       <c r="C4" t="n">
-        <v>4.422983715300374e-49</v>
+        <v>5.532637324770845e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>15.15339756011963</v>
+        <v>6.825936794281006</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6196078431372549</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Aifm3</t>
+          <t>Acta2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.728295564651489</v>
+        <v>7.259573459625244</v>
       </c>
       <c r="C5" t="n">
-        <v>4.036706078637515e-61</v>
+        <v>4.177770775091542e-15</v>
       </c>
       <c r="D5" t="n">
-        <v>16.91519927978516</v>
+        <v>8.757355690002441</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.7346938775510204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Nadk2</t>
+          <t>Myocd</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.557314395904541</v>
+        <v>7.08951473236084</v>
       </c>
       <c r="C6" t="n">
-        <v>7.646882735115261e-95</v>
+        <v>1.254680133522068e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05193901062012</v>
+        <v>6.31501579284668</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9058823529411765</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
   </sheetData>
@@ -3021,96 +3021,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Slco1c1</t>
+          <t>Abcc9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.884186267852783</v>
+        <v>7.087331295013428</v>
       </c>
       <c r="C2" t="n">
-        <v>2.916577577426439e-61</v>
+        <v>7.659730698403811e-68</v>
       </c>
       <c r="D2" t="n">
-        <v>16.94911956787109</v>
+        <v>17.81792259216309</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6829268292682927</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slco1a4</t>
+          <t>Slc38a11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.405142307281494</v>
+        <v>6.241199493408203</v>
       </c>
       <c r="C3" t="n">
-        <v>1.735986789123751e-111</v>
+        <v>3.163906860122613e-62</v>
       </c>
       <c r="D3" t="n">
-        <v>22.84440231323242</v>
+        <v>17.0678882598877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9471544715447154</v>
+        <v>0.7513227513227513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Spock2</t>
+          <t>Notch3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.870866537094116</v>
+        <v>5.95043420791626</v>
       </c>
       <c r="C4" t="n">
-        <v>1.03066534472707e-51</v>
+        <v>1.010888609432314e-84</v>
       </c>
       <c r="D4" t="n">
-        <v>15.57166481018066</v>
+        <v>19.91693878173828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6626016260162602</v>
+        <v>0.8783068783068783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Lef1</t>
+          <t>Tbx3os1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.843707084655762</v>
+        <v>5.90712833404541</v>
       </c>
       <c r="C5" t="n">
-        <v>1.967478953589985e-83</v>
+        <v>4.376945966447012e-54</v>
       </c>
       <c r="D5" t="n">
-        <v>19.77690887451172</v>
+        <v>15.91995525360107</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8577235772357723</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Slc39a10</t>
+          <t>Trpc3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.80259370803833</v>
+        <v>5.889199256896973</v>
       </c>
       <c r="C6" t="n">
-        <v>1.037100158474675e-55</v>
+        <v>1.308246644135486e-71</v>
       </c>
       <c r="D6" t="n">
-        <v>16.15530586242676</v>
+        <v>18.31001472473145</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6951219512195121</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
   </sheetData>
@@ -3162,96 +3162,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Col25a1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.643855571746826</v>
+        <v>5.878852367401123</v>
       </c>
       <c r="C2" t="n">
-        <v>1.806106837008812e-62</v>
+        <v>1.420048829910439e-164</v>
       </c>
       <c r="D2" t="n">
-        <v>17.26492691040039</v>
+        <v>27.66134834289551</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9912663755458515</v>
+        <v>0.936231884057971</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Il31ra</t>
+          <t>Slc26a7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.376112461090088</v>
+        <v>5.602328300476074</v>
       </c>
       <c r="C3" t="n">
-        <v>2.452197077203547e-48</v>
+        <v>6.469061535497088e-134</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1814489364624</v>
+        <v>24.93132591247559</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6986899563318777</v>
+        <v>0.8405797101449275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col22a1</t>
+          <t>Slc47a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.687824964523315</v>
+        <v>5.521671772003174</v>
       </c>
       <c r="C4" t="n">
-        <v>2.61534791753206e-32</v>
+        <v>1.479414945501835e-171</v>
       </c>
       <c r="D4" t="n">
-        <v>12.39955615997314</v>
+        <v>28.25019264221191</v>
       </c>
       <c r="E4" t="n">
-        <v>0.611353711790393</v>
+        <v>0.9652173913043478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Igf1</t>
+          <t>Slc4a10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.48302435874939</v>
+        <v>5.095089912414551</v>
       </c>
       <c r="C5" t="n">
-        <v>1.112520064769845e-49</v>
+        <v>2.084818107050819e-187</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4015941619873</v>
+        <v>29.53586769104004</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8602620087336245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Glis3</t>
+          <t>Slc47a2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.348710298538208</v>
+        <v>4.78768253326416</v>
       </c>
       <c r="C6" t="n">
-        <v>1.272374737438455e-37</v>
+        <v>4.179497075278108e-73</v>
       </c>
       <c r="D6" t="n">
-        <v>13.38595581054688</v>
+        <v>18.4282341003418</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7117903930131004</v>
+        <v>0.6318840579710145</v>
       </c>
     </row>
   </sheetData>
@@ -3303,96 +3303,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Slc47a1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.729148864746094</v>
+        <v>4.450317859649658</v>
       </c>
       <c r="C2" t="n">
-        <v>6.711936903204777e-31</v>
+        <v>1.254710437143614e-54</v>
       </c>
       <c r="D2" t="n">
-        <v>12.22635841369629</v>
+        <v>16.18927574157715</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9910714285714286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ranbp3l</t>
+          <t>Tbx15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.10603666305542</v>
+        <v>4.307960510253906</v>
       </c>
       <c r="C3" t="n">
-        <v>2.466879160583189e-34</v>
+        <v>1.475351188655028e-21</v>
       </c>
       <c r="D3" t="n">
-        <v>12.89632034301758</v>
+        <v>10.17861366271973</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8926829268292683</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Slc7a11</t>
+          <t>Tspan11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.0783531665802</v>
+        <v>4.153435230255127</v>
       </c>
       <c r="C4" t="n">
-        <v>7.425888279816912e-35</v>
+        <v>2.736063121309078e-41</v>
       </c>
       <c r="D4" t="n">
-        <v>13.03956604003906</v>
+        <v>14.02823543548584</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8634146341463415</v>
+        <v>0.8482142857142857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Aldh1a2</t>
+          <t>Slc4a10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.90752899646759</v>
+        <v>4.049439907073975</v>
       </c>
       <c r="C5" t="n">
-        <v>1.522019734757183e-19</v>
+        <v>6.956507806217545e-52</v>
       </c>
       <c r="D5" t="n">
-        <v>9.759799003601074</v>
+        <v>15.75197792053223</v>
       </c>
       <c r="E5" t="n">
-        <v>0.624390243902439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pde1a</t>
+          <t>Slc47a2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.82099449634552</v>
+        <v>3.94968843460083</v>
       </c>
       <c r="C6" t="n">
-        <v>9.479261708478621e-39</v>
+        <v>6.307103822333806e-28</v>
       </c>
       <c r="D6" t="n">
-        <v>13.75838756561279</v>
+        <v>11.57633876800537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9365853658536586</v>
+        <v>0.7053571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/src/excels/meningeal/new_tese/dge/top_genes_clusters_0.5.xlsx
+++ b/src/excels/meningeal/new_tese/dge/top_genes_clusters_0.5.xlsx
@@ -11,23 +11,27 @@
     <sheet name="MeV.Endothelial.1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="MeV.Endothelial.2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="MeV.Endothelial.3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MeV.Epithelial.0" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MeV.SMC.0" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="MeV.Pericytes.0" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="MeV.VLMC.0" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="MeV.VLMC.1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="MeV.FibCollagen.0" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MeV.FibCollagen.1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="MeV.FibCollagen.2" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="MeV.FibCollagen.3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="MeV.FibLaminin.0" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MeV.Fib.0" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="MeV.Fib.1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MeV.Fib.2" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="MeV.Fib.5" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MeV.Fib.3" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="MeV.Fib.4" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="MeV.FibProlif.0" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="MeV.EndoUnknow.4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MeV.Epithelial.0" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MeV.SMC.0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MeV.Pericytes.0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MeV.VLMC.0" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MeV.VLMC.1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MeV.FibCollagen.0" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MeV.FibCollagen.1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MeV.FibCollagen.2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="MeV.FibCollagen.3" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MeV.FibLaminin.0" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="MeV.Fib.0" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MeV.Fib.1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="MeV.Fib.2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MeV.Fib.5" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="MeV.Fib.3" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="MeV.Fib.4" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="MeV.FibUnknown.6" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="MeV.ImmuneDoublets.0" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="MeV.LowQuality.0" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="MeV.FibProlif.0" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -624,96 +628,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Igf1</t>
+          <t>Slc47a1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.092049598693848</v>
+        <v>4.450317859649658</v>
       </c>
       <c r="C2" t="n">
-        <v>8.865119719549452e-68</v>
+        <v>1.254710437143614e-54</v>
       </c>
       <c r="D2" t="n">
-        <v>17.9183349609375</v>
+        <v>16.18927574157715</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9910714285714286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ltbp1</t>
+          <t>Tbx15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.040301084518433</v>
+        <v>4.307960510253906</v>
       </c>
       <c r="C3" t="n">
-        <v>1.981494228641063e-57</v>
+        <v>1.475351188655028e-21</v>
       </c>
       <c r="D3" t="n">
-        <v>16.49800491333008</v>
+        <v>10.17861366271973</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Grem2</t>
+          <t>Tspan11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.973413467407227</v>
+        <v>4.153435230255127</v>
       </c>
       <c r="C4" t="n">
-        <v>1.306358055235668e-21</v>
+        <v>2.736063121309078e-41</v>
       </c>
       <c r="D4" t="n">
-        <v>10.15969562530518</v>
+        <v>14.02823543548584</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5101010101010101</v>
+        <v>0.8482142857142857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Svep1</t>
+          <t>Slc4a10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.91600775718689</v>
+        <v>4.049439907073975</v>
       </c>
       <c r="C5" t="n">
-        <v>5.263196384214766e-40</v>
+        <v>6.956507806217545e-52</v>
       </c>
       <c r="D5" t="n">
-        <v>13.78193855285645</v>
+        <v>15.75197792053223</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7121212121212122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Igfbp2</t>
+          <t>Slc47a2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.875304937362671</v>
+        <v>3.94968843460083</v>
       </c>
       <c r="C6" t="n">
-        <v>6.412683480906885e-37</v>
+        <v>6.307103822333806e-28</v>
       </c>
       <c r="D6" t="n">
-        <v>13.24851512908936</v>
+        <v>11.57633876800537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.696969696969697</v>
+        <v>0.7053571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -765,96 +769,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Kng2</t>
+          <t>Igf1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.077123641967773</v>
+        <v>3.092049598693848</v>
       </c>
       <c r="C2" t="n">
-        <v>3.655288638893611e-06</v>
+        <v>8.865119719549452e-68</v>
       </c>
       <c r="D2" t="n">
-        <v>5.80870246887207</v>
+        <v>17.9183349609375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ror2</t>
+          <t>Ltbp1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.477007865905762</v>
+        <v>3.040301084518433</v>
       </c>
       <c r="C3" t="n">
-        <v>1.281019797189107e-10</v>
+        <v>1.981494228641063e-57</v>
       </c>
       <c r="D3" t="n">
-        <v>7.551877021789551</v>
+        <v>16.49800491333008</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col15a1</t>
+          <t>Grem2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.963915824890137</v>
+        <v>2.973413467407227</v>
       </c>
       <c r="C4" t="n">
-        <v>2.686286182163059e-07</v>
+        <v>1.306358055235668e-21</v>
       </c>
       <c r="D4" t="n">
-        <v>6.307950973510742</v>
+        <v>10.15969562530518</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.5101010101010101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fap</t>
+          <t>Svep1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.795554637908936</v>
+        <v>2.91600775718689</v>
       </c>
       <c r="C5" t="n">
-        <v>8.503793454222606e-07</v>
+        <v>5.263196384214766e-40</v>
       </c>
       <c r="D5" t="n">
-        <v>6.08295202255249</v>
+        <v>13.78193855285645</v>
       </c>
       <c r="E5" t="n">
-        <v>0.574468085106383</v>
+        <v>0.7121212121212122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Runx1</t>
+          <t>Igfbp2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.742849588394165</v>
+        <v>2.875304937362671</v>
       </c>
       <c r="C6" t="n">
-        <v>8.663468150463155e-08</v>
+        <v>6.412683480906885e-37</v>
       </c>
       <c r="D6" t="n">
-        <v>6.502959251403809</v>
+        <v>13.24851512908936</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
   </sheetData>
@@ -906,96 +910,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pi16</t>
+          <t>Kng2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.72364616394043</v>
+        <v>5.077123641967773</v>
       </c>
       <c r="C2" t="n">
-        <v>1.339212783972267e-10</v>
+        <v>3.655288638893611e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>7.446139335632324</v>
+        <v>5.80870246887207</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5106382978723404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nox4</t>
+          <t>Ror2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.927291393280029</v>
+        <v>4.477007865905762</v>
       </c>
       <c r="C3" t="n">
-        <v>3.06934761341701e-09</v>
+        <v>1.281019797189107e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>7.003499031066895</v>
+        <v>7.551877021789551</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6808510638297872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col14a1</t>
+          <t>Col15a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.874123096466064</v>
+        <v>3.963915824890137</v>
       </c>
       <c r="C4" t="n">
-        <v>1.366950806119628e-06</v>
+        <v>2.686286182163059e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>5.971248626708984</v>
+        <v>6.307950973510742</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.5957446808510638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Rspo2</t>
+          <t>Fap</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.676848888397217</v>
+        <v>3.795554637908936</v>
       </c>
       <c r="C5" t="n">
-        <v>1.264694910126828e-06</v>
+        <v>8.503793454222606e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>5.993216991424561</v>
+        <v>6.08295202255249</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fndc1</t>
+          <t>Runx1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.639036655426025</v>
+        <v>3.742849588394165</v>
       </c>
       <c r="C6" t="n">
-        <v>1.314102389259921e-12</v>
+        <v>8.663468150463155e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>8.145654678344727</v>
+        <v>6.502959251403809</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.6170212765957447</v>
       </c>
     </row>
   </sheetData>
@@ -1047,96 +1051,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Pi16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.517788410186768</v>
+        <v>5.72364616394043</v>
       </c>
       <c r="C2" t="n">
-        <v>2.226779464725495e-120</v>
+        <v>1.339212783972267e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>23.75129508972168</v>
+        <v>7.446139335632324</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ranbp3l</t>
+          <t>Nox4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.001011848449707</v>
+        <v>4.927291393280029</v>
       </c>
       <c r="C3" t="n">
-        <v>1.426502566690761e-118</v>
+        <v>3.06934761341701e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>23.54644966125488</v>
+        <v>7.003499031066895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.996078431372549</v>
+        <v>0.5925925925925926</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ppp1r1a</t>
+          <t>Col14a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.930273532867432</v>
+        <v>4.874123096466064</v>
       </c>
       <c r="C4" t="n">
-        <v>4.422983715300374e-49</v>
+        <v>1.366950806119628e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>15.15339756011963</v>
+        <v>5.971248626708984</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6196078431372549</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Aifm3</t>
+          <t>Rspo2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.728295564651489</v>
+        <v>4.676848888397217</v>
       </c>
       <c r="C5" t="n">
-        <v>4.036706078637515e-61</v>
+        <v>1.264694910126828e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>16.91519927978516</v>
+        <v>5.993216991424561</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Nadk2</t>
+          <t>Fndc1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.557314395904541</v>
+        <v>4.639036655426025</v>
       </c>
       <c r="C6" t="n">
-        <v>7.646882735115261e-95</v>
+        <v>1.314102389259921e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05193901062012</v>
+        <v>8.145654678344727</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9058823529411765</v>
+        <v>0.6851851851851852</v>
       </c>
     </row>
   </sheetData>
@@ -1188,96 +1192,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abca8a</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.812708377838135</v>
+        <v>4.517788410186768</v>
       </c>
       <c r="C2" t="n">
-        <v>1.016249034895986e-24</v>
+        <v>2.226779464725495e-120</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0407075881958</v>
+        <v>23.75129508972168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Lama1</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.591655254364014</v>
+        <v>4.001011848449707</v>
       </c>
       <c r="C3" t="n">
-        <v>1.772656712304396e-38</v>
+        <v>1.426502566690761e-118</v>
       </c>
       <c r="D3" t="n">
-        <v>13.71305370330811</v>
+        <v>23.54644966125488</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.996078431372549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col15a1</t>
+          <t>Ppp1r1a</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.365627765655518</v>
+        <v>3.930273532867432</v>
       </c>
       <c r="C4" t="n">
-        <v>2.666220465059485e-20</v>
+        <v>4.422983715300374e-49</v>
       </c>
       <c r="D4" t="n">
-        <v>10.03963470458984</v>
+        <v>15.15339756011963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6196078431372549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cemip</t>
+          <t>Aifm3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.291172981262207</v>
+        <v>3.728295564651489</v>
       </c>
       <c r="C5" t="n">
-        <v>4.216176818475051e-29</v>
+        <v>4.036706078637515e-61</v>
       </c>
       <c r="D5" t="n">
-        <v>11.98947715759277</v>
+        <v>16.91519927978516</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Apod</t>
+          <t>Nadk2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.98327112197876</v>
+        <v>3.557314395904541</v>
       </c>
       <c r="C6" t="n">
-        <v>7.884380516812768e-26</v>
+        <v>7.646882735115261e-95</v>
       </c>
       <c r="D6" t="n">
-        <v>11.28772640228271</v>
+        <v>21.05193901062012</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9058823529411765</v>
       </c>
     </row>
   </sheetData>
@@ -1329,96 +1333,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Slc7a11</t>
+          <t>Abca8a</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.486213684082031</v>
+        <v>4.812708377838135</v>
       </c>
       <c r="C2" t="n">
-        <v>7.977815620295287e-68</v>
+        <v>1.016249034895986e-24</v>
       </c>
       <c r="D2" t="n">
-        <v>17.96271133422852</v>
+        <v>11.0407075881958</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Col4a6</t>
+          <t>Lama1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.079169988632202</v>
+        <v>4.591655254364014</v>
       </c>
       <c r="C3" t="n">
-        <v>1.04727916447729e-22</v>
+        <v>1.772656712304396e-38</v>
       </c>
       <c r="D3" t="n">
-        <v>10.52660942077637</v>
+        <v>13.71305370330811</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ltbp1</t>
+          <t>Col15a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.029100179672241</v>
+        <v>4.365627765655518</v>
       </c>
       <c r="C4" t="n">
-        <v>2.260390717954911e-26</v>
+        <v>2.666220465059485e-20</v>
       </c>
       <c r="D4" t="n">
-        <v>11.33651924133301</v>
+        <v>10.03963470458984</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5964285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mrvi1</t>
+          <t>Cemip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.768715262413025</v>
+        <v>4.291172981262207</v>
       </c>
       <c r="C5" t="n">
-        <v>8.751894803413632e-22</v>
+        <v>4.216176818475051e-29</v>
       </c>
       <c r="D5" t="n">
-        <v>10.31768035888672</v>
+        <v>11.98947715759277</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5892857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Igf1</t>
+          <t>Apod</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.716221690177917</v>
+        <v>2.98327112197876</v>
       </c>
       <c r="C6" t="n">
-        <v>2.796366324990599e-31</v>
+        <v>7.884380516812768e-26</v>
       </c>
       <c r="D6" t="n">
-        <v>12.32445335388184</v>
+        <v>11.28772640228271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7607142857142857</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1470,96 +1474,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Slc7a11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.729148864746094</v>
+        <v>2.486213684082031</v>
       </c>
       <c r="C2" t="n">
-        <v>6.711936903204777e-31</v>
+        <v>7.977815620295287e-68</v>
       </c>
       <c r="D2" t="n">
-        <v>12.22635841369629</v>
+        <v>17.96271133422852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9214285714285714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ranbp3l</t>
+          <t>Col4a6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.10603666305542</v>
+        <v>2.079169988632202</v>
       </c>
       <c r="C3" t="n">
-        <v>2.466879160583189e-34</v>
+        <v>1.04727916447729e-22</v>
       </c>
       <c r="D3" t="n">
-        <v>12.89632034301758</v>
+        <v>10.52660942077637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8926829268292683</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Slc7a11</t>
+          <t>Ltbp1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.0783531665802</v>
+        <v>2.029100179672241</v>
       </c>
       <c r="C4" t="n">
-        <v>7.425888279816912e-35</v>
+        <v>2.260390717954911e-26</v>
       </c>
       <c r="D4" t="n">
-        <v>13.03956604003906</v>
+        <v>11.33651924133301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8634146341463415</v>
+        <v>0.5964285714285714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Aldh1a2</t>
+          <t>Mrvi1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.90752899646759</v>
+        <v>1.768715262413025</v>
       </c>
       <c r="C5" t="n">
-        <v>1.522019734757183e-19</v>
+        <v>8.751894803413632e-22</v>
       </c>
       <c r="D5" t="n">
-        <v>9.759799003601074</v>
+        <v>10.31768035888672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.624390243902439</v>
+        <v>0.5892857142857143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pde1a</t>
+          <t>Igf1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.82099449634552</v>
+        <v>1.716221690177917</v>
       </c>
       <c r="C6" t="n">
-        <v>9.479261708478621e-39</v>
+        <v>2.796366324990599e-31</v>
       </c>
       <c r="D6" t="n">
-        <v>13.75838756561279</v>
+        <v>12.32445335388184</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9365853658536586</v>
+        <v>0.7607142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -1615,92 +1619,92 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.643855571746826</v>
+        <v>2.729148864746094</v>
       </c>
       <c r="C2" t="n">
-        <v>1.806106837008812e-62</v>
+        <v>6.711936903204777e-31</v>
       </c>
       <c r="D2" t="n">
-        <v>17.26492691040039</v>
+        <v>12.22635841369629</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9912663755458515</v>
+        <v>0.9560975609756097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Il31ra</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.376112461090088</v>
+        <v>2.10603666305542</v>
       </c>
       <c r="C3" t="n">
-        <v>2.452197077203547e-48</v>
+        <v>2.466879160583189e-34</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1814489364624</v>
+        <v>12.89632034301758</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6986899563318777</v>
+        <v>0.8926829268292683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col22a1</t>
+          <t>Slc7a11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.687824964523315</v>
+        <v>2.0783531665802</v>
       </c>
       <c r="C4" t="n">
-        <v>2.61534791753206e-32</v>
+        <v>7.425888279816912e-35</v>
       </c>
       <c r="D4" t="n">
-        <v>12.39955615997314</v>
+        <v>13.03956604003906</v>
       </c>
       <c r="E4" t="n">
-        <v>0.611353711790393</v>
+        <v>0.8634146341463415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Igf1</t>
+          <t>Aldh1a2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.48302435874939</v>
+        <v>1.90752899646759</v>
       </c>
       <c r="C5" t="n">
-        <v>1.112520064769845e-49</v>
+        <v>1.522019734757183e-19</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4015941619873</v>
+        <v>9.759799003601074</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8602620087336245</v>
+        <v>0.624390243902439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Glis3</t>
+          <t>Pde1a</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.348710298538208</v>
+        <v>1.82099449634552</v>
       </c>
       <c r="C6" t="n">
-        <v>1.272374737438455e-37</v>
+        <v>9.479261708478621e-39</v>
       </c>
       <c r="D6" t="n">
-        <v>13.38595581054688</v>
+        <v>13.75838756561279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7117903930131004</v>
+        <v>0.9365853658536586</v>
       </c>
     </row>
   </sheetData>
@@ -1756,92 +1760,92 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.845197677612305</v>
+        <v>3.643855571746826</v>
       </c>
       <c r="C2" t="n">
-        <v>1.566760433650805e-54</v>
+        <v>1.806106837008812e-62</v>
       </c>
       <c r="D2" t="n">
-        <v>16.13285636901855</v>
+        <v>17.26492691040039</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9912663755458515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ranbp3l</t>
+          <t>Il31ra</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.163457155227661</v>
+        <v>3.376112461090088</v>
       </c>
       <c r="C3" t="n">
-        <v>6.943017663513871e-59</v>
+        <v>2.452197077203547e-48</v>
       </c>
       <c r="D3" t="n">
-        <v>16.78170013427734</v>
+        <v>15.1814489364624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.6986899563318777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ptgds</t>
+          <t>Col22a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.908675193786621</v>
+        <v>2.687824964523315</v>
       </c>
       <c r="C4" t="n">
-        <v>3.194319174933153e-41</v>
+        <v>2.61534791753206e-32</v>
       </c>
       <c r="D4" t="n">
-        <v>14.05057048797607</v>
+        <v>12.39955615997314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.611353711790393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Nadk2</t>
+          <t>Igf1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.602757930755615</v>
+        <v>2.48302435874939</v>
       </c>
       <c r="C5" t="n">
-        <v>7.480118312694928e-34</v>
+        <v>1.112520064769845e-49</v>
       </c>
       <c r="D5" t="n">
-        <v>12.76703453063965</v>
+        <v>15.4015941619873</v>
       </c>
       <c r="E5" t="n">
-        <v>0.75</v>
+        <v>0.8602620087336245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Slc6a20a</t>
+          <t>Glis3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.439021587371826</v>
+        <v>2.348710298538208</v>
       </c>
       <c r="C6" t="n">
-        <v>6.044269318625661e-42</v>
+        <v>1.272374737438455e-37</v>
       </c>
       <c r="D6" t="n">
-        <v>14.18364715576172</v>
+        <v>13.38595581054688</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8920454545454546</v>
+        <v>0.7117903930131004</v>
       </c>
     </row>
   </sheetData>
@@ -1893,96 +1897,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Mamdc2</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.955446720123291</v>
+        <v>3.845197677612305</v>
       </c>
       <c r="C2" t="n">
-        <v>4.004350585996364e-05</v>
+        <v>1.566760433650805e-54</v>
       </c>
       <c r="D2" t="n">
-        <v>5.573925495147705</v>
+        <v>16.13285636901855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Abca8a</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.506396770477295</v>
+        <v>3.163457155227661</v>
       </c>
       <c r="C3" t="n">
-        <v>2.899682339671256e-10</v>
+        <v>6.943017663513871e-59</v>
       </c>
       <c r="D3" t="n">
-        <v>7.57810115814209</v>
+        <v>16.78170013427734</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.9772727272727273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ror2</t>
+          <t>Ptgds</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.943387508392334</v>
+        <v>2.908675193786621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001913969031223089</v>
+        <v>3.194319174933153e-41</v>
       </c>
       <c r="D4" t="n">
-        <v>5.245718955993652</v>
+        <v>14.05057048797607</v>
       </c>
       <c r="E4" t="n">
-        <v>0.525</v>
+        <v>0.8352272727272727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Matn2</t>
+          <t>Nadk2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.685840368270874</v>
+        <v>2.602757930755615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006108274222381618</v>
+        <v>7.480118312694928e-34</v>
       </c>
       <c r="D5" t="n">
-        <v>4.97784948348999</v>
+        <v>12.76703453063965</v>
       </c>
       <c r="E5" t="n">
-        <v>0.525</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Vit</t>
+          <t>Slc6a20a</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.521341562271118</v>
+        <v>2.439021587371826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006108274222381618</v>
+        <v>6.044269318625661e-42</v>
       </c>
       <c r="D6" t="n">
-        <v>4.98298978805542</v>
+        <v>14.18364715576172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.525</v>
+        <v>0.8920454545454546</v>
       </c>
     </row>
   </sheetData>
@@ -2175,96 +2179,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Gna14</t>
+          <t>Mamdc2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.183976650238037</v>
+        <v>5.955446720123291</v>
       </c>
       <c r="C2" t="n">
-        <v>4.802803053179267e-11</v>
+        <v>4.004350585996364e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>7.494328498840332</v>
+        <v>5.573925495147705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Itgb4</t>
+          <t>Abca8a</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.948183059692383</v>
+        <v>4.506396770477295</v>
       </c>
       <c r="C3" t="n">
-        <v>1.957481677328529e-11</v>
+        <v>2.899682339671256e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>7.620411396026611</v>
+        <v>7.57810115814209</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5119047619047619</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ptch1</t>
+          <t>Ror2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.775169849395752</v>
+        <v>3.943387508392334</v>
       </c>
       <c r="C4" t="n">
-        <v>8.925673634738105e-29</v>
+        <v>0.0001913969031223089</v>
       </c>
       <c r="D4" t="n">
-        <v>11.85065174102783</v>
+        <v>5.245718955993652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ebf2</t>
+          <t>Matn2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.357966423034668</v>
+        <v>3.685840368270874</v>
       </c>
       <c r="C5" t="n">
-        <v>4.329094981017548e-31</v>
+        <v>0.0006108274222381618</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3071985244751</v>
+        <v>4.97784948348999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>9130410C08Rik</t>
+          <t>Vit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.749658584594727</v>
+        <v>3.521341562271118</v>
       </c>
       <c r="C6" t="n">
-        <v>6.328868028744123e-12</v>
+        <v>0.0006108274222381618</v>
       </c>
       <c r="D6" t="n">
-        <v>7.774576187133789</v>
+        <v>4.98298978805542</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5595238095238095</v>
+        <v>0.525</v>
       </c>
     </row>
   </sheetData>
@@ -2316,6 +2320,570 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>Gna14</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.183976650238037</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.802803053179267e-11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.494328498840332</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Itgb4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.948183059692383</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.957481677328529e-11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.620411396026611</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ptch1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.775169849395752</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.925673634738105e-29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.85065174102783</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Ebf2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.357966423034668</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.329094981017548e-31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.3071985244751</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>9130410C08Rik</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.749658584594727</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.328868028744123e-12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.774576187133789</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5595238095238095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Trpm3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.55545437335968</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.302185164371978e-12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.941797733306885</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Kirrel3</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.027142882347107</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.489781664528542e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.181618690490723</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.616</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Lsamp</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.014389038085938</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.80427248342351e-21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.45835208892822</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Kcnip4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.01419723033905</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.987870401271418e-16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.061214447021484</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Nrxn3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9496870636940002</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.111638553097349e-14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.49730110168457</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Myo1f</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.143640518188477</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02917021281497099</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.497880935668945</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5652173913043478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Runx1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.030216693878174</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02917021281497099</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.4943528175354</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Dock2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.837376117706299</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.009468772853870851</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.844241142272949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lyn</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.961606502532959</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.009468772853870851</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.830912113189697</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ppm1h</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.529474020004272</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002276845349212989</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.311151504516602</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Rpl41</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.580030679702759</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.800275661234721e-22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.50026988983154</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Rplp1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.563366651535034</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.093705484313558e-30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.17930316925049</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.386082172393799</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.7967765209076e-29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.94750308990479</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6176470588235294</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Tpt1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.367879390716553</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.270813518584753e-23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.75734996795654</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5245098039215687</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Tmsb4x</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.340869665145874</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.314498833424277e-35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.07700634002686</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
           <t>Depdc1a</t>
         </is>
       </c>
@@ -2739,96 +3307,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dapl1</t>
+          <t>Sorbs2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.174651622772217</v>
+        <v>1.837750554084778</v>
       </c>
       <c r="C2" t="n">
-        <v>1.053977920538218e-17</v>
+        <v>0.01669007168730177</v>
       </c>
       <c r="D2" t="n">
-        <v>9.325041770935059</v>
+        <v>3.952133893966675</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6527777777777778</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cubn</t>
+          <t>Frmd5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.16588830947876</v>
+        <v>1.806409597396851</v>
       </c>
       <c r="C3" t="n">
-        <v>5.189908223154612e-14</v>
+        <v>0.001218610989820288</v>
       </c>
       <c r="D3" t="n">
-        <v>8.324864387512207</v>
+        <v>4.689383983612061</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Prg4</t>
+          <t>Ptprg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.98261547088623</v>
+        <v>1.501955509185791</v>
       </c>
       <c r="C4" t="n">
-        <v>9.07043299211441e-35</v>
+        <v>0.003854808305210897</v>
       </c>
       <c r="D4" t="n">
-        <v>13.02622699737549</v>
+        <v>4.364767551422119</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Slc7a14</t>
+          <t>Cmss1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.871819496154785</v>
+        <v>1.425633549690247</v>
       </c>
       <c r="C5" t="n">
-        <v>3.988245121658817e-34</v>
+        <v>0.01032445316996816</v>
       </c>
       <c r="D5" t="n">
-        <v>12.88145637512207</v>
+        <v>4.111031055450439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9305555555555556</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Gphn</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.709115982055664</v>
+        <v>1.34140157699585</v>
       </c>
       <c r="C6" t="n">
-        <v>5.764310105693933e-26</v>
+        <v>7.547003105690138e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>11.27961158752441</v>
+        <v>5.368399620056152</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.9375</v>
       </c>
     </row>
   </sheetData>
@@ -2880,96 +3448,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Myh11</t>
+          <t>Dapl1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.972146034240723</v>
+        <v>6.174651622772217</v>
       </c>
       <c r="C2" t="n">
-        <v>2.617308693373026e-19</v>
+        <v>1.053977920538218e-17</v>
       </c>
       <c r="D2" t="n">
-        <v>10.01942920684814</v>
+        <v>9.325041770935059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.6527777777777778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Myom1</t>
+          <t>Cubn</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.498341083526611</v>
+        <v>6.16588830947876</v>
       </c>
       <c r="C3" t="n">
-        <v>4.177770775091542e-15</v>
+        <v>5.189908223154612e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>8.75755786895752</v>
+        <v>8.324864387512207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Jph2</t>
+          <t>Prg4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.424873828887939</v>
+        <v>5.98261547088623</v>
       </c>
       <c r="C4" t="n">
-        <v>5.532637324770845e-09</v>
+        <v>9.07043299211441e-35</v>
       </c>
       <c r="D4" t="n">
-        <v>6.825936794281006</v>
+        <v>13.02622699737549</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Acta2</t>
+          <t>Slc7a14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.259573459625244</v>
+        <v>4.871819496154785</v>
       </c>
       <c r="C5" t="n">
-        <v>4.177770775091542e-15</v>
+        <v>3.988245121658817e-34</v>
       </c>
       <c r="D5" t="n">
-        <v>8.757355690002441</v>
+        <v>12.88145637512207</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Myocd</t>
+          <t>Dpp4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.08951473236084</v>
+        <v>4.709115982055664</v>
       </c>
       <c r="C6" t="n">
-        <v>1.254680133522068e-07</v>
+        <v>5.764310105693933e-26</v>
       </c>
       <c r="D6" t="n">
-        <v>6.31501579284668</v>
+        <v>11.27961158752441</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -3021,96 +3589,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abcc9</t>
+          <t>Myh11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.087331295013428</v>
+        <v>7.972146034240723</v>
       </c>
       <c r="C2" t="n">
-        <v>7.659730698403811e-68</v>
+        <v>2.617308693373026e-19</v>
       </c>
       <c r="D2" t="n">
-        <v>17.81792259216309</v>
+        <v>10.01942920684814</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8367346938775511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slc38a11</t>
+          <t>Myom1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.241199493408203</v>
+        <v>7.498341083526611</v>
       </c>
       <c r="C3" t="n">
-        <v>3.163906860122613e-62</v>
+        <v>4.177770775091542e-15</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0678882598877</v>
+        <v>8.75755786895752</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7513227513227513</v>
+        <v>0.7346938775510204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Notch3</t>
+          <t>Jph2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.95043420791626</v>
+        <v>7.424873828887939</v>
       </c>
       <c r="C4" t="n">
-        <v>1.010888609432314e-84</v>
+        <v>5.532637324770845e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>19.91693878173828</v>
+        <v>6.825936794281006</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8783068783068783</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Tbx3os1</t>
+          <t>Acta2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.90712833404541</v>
+        <v>7.259573459625244</v>
       </c>
       <c r="C5" t="n">
-        <v>4.376945966447012e-54</v>
+        <v>4.177770775091542e-15</v>
       </c>
       <c r="D5" t="n">
-        <v>15.91995525360107</v>
+        <v>8.757355690002441</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7346938775510204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Trpc3</t>
+          <t>Myocd</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.889199256896973</v>
+        <v>7.08951473236084</v>
       </c>
       <c r="C6" t="n">
-        <v>1.308246644135486e-71</v>
+        <v>1.254680133522068e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>18.31001472473145</v>
+        <v>6.31501579284668</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
   </sheetData>
@@ -3162,96 +3730,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Col25a1</t>
+          <t>Abcc9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.878852367401123</v>
+        <v>7.087331295013428</v>
       </c>
       <c r="C2" t="n">
-        <v>1.420048829910439e-164</v>
+        <v>7.659730698403811e-68</v>
       </c>
       <c r="D2" t="n">
-        <v>27.66134834289551</v>
+        <v>17.81792259216309</v>
       </c>
       <c r="E2" t="n">
-        <v>0.936231884057971</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slc26a7</t>
+          <t>Slc38a11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.602328300476074</v>
+        <v>6.241199493408203</v>
       </c>
       <c r="C3" t="n">
-        <v>6.469061535497088e-134</v>
+        <v>3.163906860122613e-62</v>
       </c>
       <c r="D3" t="n">
-        <v>24.93132591247559</v>
+        <v>17.0678882598877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8405797101449275</v>
+        <v>0.7513227513227513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Slc47a1</t>
+          <t>Notch3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.521671772003174</v>
+        <v>5.95043420791626</v>
       </c>
       <c r="C4" t="n">
-        <v>1.479414945501835e-171</v>
+        <v>1.010888609432314e-84</v>
       </c>
       <c r="D4" t="n">
-        <v>28.25019264221191</v>
+        <v>19.91693878173828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9652173913043478</v>
+        <v>0.8783068783068783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Slc4a10</t>
+          <t>Tbx3os1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.095089912414551</v>
+        <v>5.90712833404541</v>
       </c>
       <c r="C5" t="n">
-        <v>2.084818107050819e-187</v>
+        <v>4.376945966447012e-54</v>
       </c>
       <c r="D5" t="n">
-        <v>29.53586769104004</v>
+        <v>15.91995525360107</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Slc47a2</t>
+          <t>Trpc3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.78768253326416</v>
+        <v>5.889199256896973</v>
       </c>
       <c r="C6" t="n">
-        <v>4.179497075278108e-73</v>
+        <v>1.308246644135486e-71</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4282341003418</v>
+        <v>18.31001472473145</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6318840579710145</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
   </sheetData>
@@ -3303,58 +3871,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Slc47a1</t>
+          <t>Col25a1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.450317859649658</v>
+        <v>5.878852367401123</v>
       </c>
       <c r="C2" t="n">
-        <v>1.254710437143614e-54</v>
+        <v>1.420048829910439e-164</v>
       </c>
       <c r="D2" t="n">
-        <v>16.18927574157715</v>
+        <v>27.66134834289551</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9910714285714286</v>
+        <v>0.936231884057971</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Tbx15</t>
+          <t>Slc26a7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.307960510253906</v>
+        <v>5.602328300476074</v>
       </c>
       <c r="C3" t="n">
-        <v>1.475351188655028e-21</v>
+        <v>6.469061535497088e-134</v>
       </c>
       <c r="D3" t="n">
-        <v>10.17861366271973</v>
+        <v>24.93132591247559</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.8405797101449275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Tspan11</t>
+          <t>Slc47a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.153435230255127</v>
+        <v>5.521671772003174</v>
       </c>
       <c r="C4" t="n">
-        <v>2.736063121309078e-41</v>
+        <v>1.479414945501835e-171</v>
       </c>
       <c r="D4" t="n">
-        <v>14.02823543548584</v>
+        <v>28.25019264221191</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8482142857142857</v>
+        <v>0.9652173913043478</v>
       </c>
     </row>
     <row r="5">
@@ -3364,13 +3932,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.049439907073975</v>
+        <v>5.095089912414551</v>
       </c>
       <c r="C5" t="n">
-        <v>6.956507806217545e-52</v>
+        <v>2.084818107050819e-187</v>
       </c>
       <c r="D5" t="n">
-        <v>15.75197792053223</v>
+        <v>29.53586769104004</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3383,16 +3951,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.94968843460083</v>
+        <v>4.78768253326416</v>
       </c>
       <c r="C6" t="n">
-        <v>6.307103822333806e-28</v>
+        <v>4.179497075278108e-73</v>
       </c>
       <c r="D6" t="n">
-        <v>11.57633876800537</v>
+        <v>18.4282341003418</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7053571428571429</v>
+        <v>0.6318840579710145</v>
       </c>
     </row>
   </sheetData>
